--- a/monitoring/analytics/scripts/tests.xlsx
+++ b/monitoring/analytics/scripts/tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="0" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="51200" yWindow="0" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="Scalability agent normal sync" sheetId="3" r:id="rId3"/>
     <sheet name="2" sheetId="5" r:id="rId4"/>
     <sheet name="dynamic tests" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="dynamic test2" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="42">
   <si>
     <t>Density</t>
   </si>
@@ -108,6 +109,48 @@
   </si>
   <si>
     <t>Conv. Time</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Avg. Bounceback</t>
+  </si>
+  <si>
+    <t>Change / Rate Avg. Utility</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>MS sync</t>
+  </si>
+  <si>
+    <t>MGM sync</t>
+  </si>
+  <si>
+    <t>DPOP sync</t>
+  </si>
+  <si>
+    <t>MS async</t>
+  </si>
+  <si>
+    <t>MGM async</t>
+  </si>
+  <si>
+    <t>DPOP async</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>1-</t>
   </si>
 </sst>
 </file>
@@ -365,7 +408,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -420,8 +463,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -546,8 +609,30 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="40" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="74">
     <cellStyle name="Bad" xfId="41" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -574,6 +659,16 @@
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="40" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -600,6 +695,16 @@
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="19" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2210,7 +2315,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2224,7 +2328,7 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2405,13 +2509,18 @@
       <c r="F5" s="3">
         <v>50.5</v>
       </c>
+      <c r="G5" s="3">
+        <v>134.6</v>
+      </c>
       <c r="H5" s="3">
         <v>89.3</v>
       </c>
       <c r="I5" s="3">
         <v>4.8</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <v>174.3</v>
+      </c>
       <c r="K5" s="35">
         <v>70.7</v>
       </c>
@@ -2810,7 +2919,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2876,7 +2984,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A11" si="0">A4+100</f>
+        <f t="shared" ref="A5:A7" si="0">A4+100</f>
         <v>300</v>
       </c>
       <c r="B5" s="4"/>
@@ -3185,15 +3293,1589 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="48">
+        <v>500</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="48">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="49"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51">
+        <v>500</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="52"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51">
+        <v>500</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="52"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51">
+        <v>500</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51">
+        <v>1</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="52"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="53">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="52"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="53">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="52"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="53">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="52"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="53">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53">
+        <v>1</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="52"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="52"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53">
+        <v>1</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="52"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="52"/>
+    </row>
+    <row r="17" spans="2:19">
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="52"/>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53">
+        <v>1</v>
+      </c>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="52"/>
+    </row>
+    <row r="19" spans="2:19">
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="53">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="52"/>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="53">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="52"/>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="53">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="52"/>
+    </row>
+    <row r="22" spans="2:19">
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57">
+        <v>1</v>
+      </c>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="58"/>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="B23" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="61">
+        <v>500</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="61">
+        <v>0.25</v>
+      </c>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="49"/>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="B24" s="62"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53">
+        <v>500</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="52"/>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="62"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53">
+        <v>500</v>
+      </c>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="52"/>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="B26" s="62"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53">
+        <v>500</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53">
+        <v>1</v>
+      </c>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="52"/>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="B27" s="62"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="52"/>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="B28" s="62"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="52"/>
+    </row>
+    <row r="29" spans="2:19">
+      <c r="B29" s="62"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="52"/>
+    </row>
+    <row r="30" spans="2:19">
+      <c r="B30" s="62"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53">
+        <v>1</v>
+      </c>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="52"/>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="B31" s="62"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="52"/>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="B32" s="62"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="52"/>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33" s="62"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="52"/>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34" s="62"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53">
+        <v>1</v>
+      </c>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="52"/>
+    </row>
+    <row r="35" spans="2:19">
+      <c r="B35" s="62"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="52"/>
+    </row>
+    <row r="36" spans="2:19">
+      <c r="B36" s="62"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="52"/>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="B37" s="62"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="52"/>
+    </row>
+    <row r="38" spans="2:19">
+      <c r="B38" s="62"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53">
+        <v>1</v>
+      </c>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="52"/>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="B39" s="62"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="52"/>
+    </row>
+    <row r="40" spans="2:19">
+      <c r="B40" s="62"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="52"/>
+    </row>
+    <row r="41" spans="2:19">
+      <c r="B41" s="62"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="52"/>
+    </row>
+    <row r="42" spans="2:19">
+      <c r="B42" s="63"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57">
+        <v>1</v>
+      </c>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="58"/>
+    </row>
+    <row r="43" spans="2:19">
+      <c r="B43" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="61">
+        <v>500</v>
+      </c>
+      <c r="E43" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="61">
+        <v>0.25</v>
+      </c>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="49"/>
+    </row>
+    <row r="44" spans="2:19">
+      <c r="B44" s="62"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53">
+        <v>500</v>
+      </c>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="51"/>
+      <c r="S44" s="52"/>
+    </row>
+    <row r="45" spans="2:19">
+      <c r="B45" s="62"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53">
+        <v>500</v>
+      </c>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="52"/>
+    </row>
+    <row r="46" spans="2:19">
+      <c r="B46" s="62"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53">
+        <v>500</v>
+      </c>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53">
+        <v>1</v>
+      </c>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="52"/>
+    </row>
+    <row r="47" spans="2:19">
+      <c r="B47" s="62"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="52"/>
+    </row>
+    <row r="48" spans="2:19">
+      <c r="B48" s="62"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="52"/>
+    </row>
+    <row r="49" spans="2:19">
+      <c r="B49" s="62"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="52"/>
+    </row>
+    <row r="50" spans="2:19">
+      <c r="B50" s="62"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53">
+        <v>1000</v>
+      </c>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53">
+        <v>1</v>
+      </c>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="52"/>
+    </row>
+    <row r="51" spans="2:19">
+      <c r="B51" s="62"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E51" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="52"/>
+    </row>
+    <row r="52" spans="2:19">
+      <c r="B52" s="62"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="52"/>
+    </row>
+    <row r="53" spans="2:19">
+      <c r="B53" s="62"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="52"/>
+    </row>
+    <row r="54" spans="2:19">
+      <c r="B54" s="62"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53">
+        <v>1</v>
+      </c>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="52"/>
+    </row>
+    <row r="55" spans="2:19">
+      <c r="B55" s="62"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E55" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="52"/>
+    </row>
+    <row r="56" spans="2:19">
+      <c r="B56" s="62"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="51"/>
+      <c r="R56" s="51"/>
+      <c r="S56" s="52"/>
+    </row>
+    <row r="57" spans="2:19">
+      <c r="B57" s="62"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="52"/>
+    </row>
+    <row r="58" spans="2:19">
+      <c r="B58" s="62"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53">
+        <v>1</v>
+      </c>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="52"/>
+    </row>
+    <row r="59" spans="2:19">
+      <c r="B59" s="62"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="52"/>
+    </row>
+    <row r="60" spans="2:19">
+      <c r="B60" s="62"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="51"/>
+      <c r="S60" s="52"/>
+    </row>
+    <row r="61" spans="2:19">
+      <c r="B61" s="62"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53">
+        <v>2000</v>
+      </c>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="52"/>
+    </row>
+    <row r="62" spans="2:19">
+      <c r="B62" s="63"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57">
+        <v>1</v>
+      </c>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="58"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3204,9 +4886,1546 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="61">
+        <v>500</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="64"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="42"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42">
+        <v>500</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="65"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="42"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="65"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="42"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="65"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="42"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="65"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="42"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="65"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="42"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="65"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="42"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="65"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="42"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42">
+        <v>1500</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="65"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="42"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="65"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="42"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="65"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="42"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="65"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="42"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42">
+        <v>1500</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="65"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="42"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42">
+        <v>1500</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="65"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="42"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="65"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="42"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="65"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="42"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="65"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="42"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="65"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="42"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="65"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="42"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="66"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="42"/>
+      <c r="B23" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="42">
+        <v>500</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="65"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="42"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42">
+        <v>500</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="65"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="42"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="65"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="42"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="65"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="42"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="65"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="42"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="65"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="42"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="65"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="42"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="65"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="42"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42">
+        <v>1500</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="65"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="42"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="65"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="42"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="65"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="42"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="65"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="42"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="65"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="42"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42">
+        <v>1500</v>
+      </c>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="65"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="42"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="65"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="42"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="65"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="42"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="65"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="42"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="65"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="42"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="65"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="42"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="66"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="42"/>
+      <c r="B43" s="62">
+        <v>0.75</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="42">
+        <v>500</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="65"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="42"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42">
+        <v>500</v>
+      </c>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="65"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="42"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="65"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="42"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="65"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="42"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="65"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="42"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="65"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="42"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="65"/>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="42"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="65"/>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="42"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42">
+        <v>1500</v>
+      </c>
+      <c r="E51" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="65"/>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="42"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="65"/>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="42"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="65"/>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="42"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="65"/>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="42"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42">
+        <v>1500</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="65"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="42"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42">
+        <v>1500</v>
+      </c>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="65"/>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="42"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="65"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="42"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="65"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="42"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="65"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="42"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="65"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="42"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="65"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="42"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="57"/>
+      <c r="R62" s="57"/>
+      <c r="S62" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>

--- a/monitoring/analytics/scripts/tests.xlsx
+++ b/monitoring/analytics/scripts/tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="0" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="51200" yWindow="0" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="42">
   <si>
     <t>Density</t>
   </si>
@@ -408,7 +408,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="74">
+  <cellStyleXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -483,8 +483,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -612,27 +616,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="40" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="41" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="41" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="41" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="41" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="41" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="41" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="40" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="40" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="40" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="41" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="41" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="74">
+  <cellStyles count="78">
     <cellStyle name="Bad" xfId="41" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -669,6 +679,8 @@
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="40" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -705,6 +717,8 @@
     <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="19" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3293,10 +3307,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3313,37 +3327,37 @@
       <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="71" t="s">
         <v>34</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="71" t="s">
         <v>35</v>
       </c>
       <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="71" t="s">
         <v>36</v>
       </c>
       <c r="N1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="71" t="s">
         <v>37</v>
       </c>
       <c r="P1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="71" t="s">
         <v>38</v>
       </c>
       <c r="R1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="71" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3354,37 +3368,37 @@
       <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="71" t="s">
         <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="71" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="71" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="71" t="s">
         <v>30</v>
       </c>
       <c r="R2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="S2" s="71" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3392,7 +3406,7 @@
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="61">
         <v>0.25</v>
       </c>
       <c r="C3" s="47" t="s">
@@ -3408,1470 +3422,1176 @@
         <v>0.25</v>
       </c>
       <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="49"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="65"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50">
         <v>500</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51">
+      <c r="E4" s="50"/>
+      <c r="F4" s="50">
         <v>0.5</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="52"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="66"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51">
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50">
         <v>500</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51">
+      <c r="E5" s="50"/>
+      <c r="F5" s="50">
         <v>0.75</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="52"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="66"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51">
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50">
         <v>500</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51">
+      <c r="E6" s="50"/>
+      <c r="F6" s="50">
         <v>1</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="52"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="66"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="53">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51">
         <v>1000</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="51">
         <v>0.25</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="52"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="66"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="53">
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51">
         <v>1000</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53">
+      <c r="E8" s="51"/>
+      <c r="F8" s="51">
         <v>0.5</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="52"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="66"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="53">
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51">
         <v>1000</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53">
+      <c r="E9" s="51"/>
+      <c r="F9" s="51">
         <v>0.75</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="52"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="66"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="53">
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51">
         <v>1000</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53">
+      <c r="E10" s="51"/>
+      <c r="F10" s="51">
         <v>1</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="52"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="66"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="53">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51">
         <v>1500</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="51">
         <v>0.25</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="52"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="66"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="53">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51">
         <v>1500</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53">
+      <c r="E12" s="51"/>
+      <c r="F12" s="51">
         <v>0.5</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="52"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="66"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="53">
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51">
         <v>1500</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53">
+      <c r="E13" s="51"/>
+      <c r="F13" s="51">
         <v>0.75</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="52"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="66"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="53">
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51">
         <v>1500</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53">
+      <c r="E14" s="51"/>
+      <c r="F14" s="51">
         <v>1</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="52"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="66"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="53">
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="50"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="66"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="50"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="66"/>
+    </row>
+    <row r="17" spans="2:19">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="50"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="66"/>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55">
+        <v>1</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="67"/>
+    </row>
+    <row r="19" spans="2:19">
+      <c r="B19" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="58">
+        <v>500</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="58">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="48"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="65"/>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="B20" s="59"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51">
+        <v>500</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="66"/>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21" s="59"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51">
+        <v>500</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="G21" s="50"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="66"/>
+    </row>
+    <row r="22" spans="2:19">
+      <c r="B22" s="59"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51">
+        <v>500</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51">
+        <v>1</v>
+      </c>
+      <c r="G22" s="50"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="66"/>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="B23" s="59"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="G23" s="50"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="66"/>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="B24" s="59"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="50"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="66"/>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="59"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="G25" s="50"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="66"/>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="B26" s="59"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51">
+        <v>1</v>
+      </c>
+      <c r="G26" s="50"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="66"/>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="B27" s="59"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51">
         <v>1500</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E27" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F27" s="51">
         <v>0.25</v>
       </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="52"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="53">
+      <c r="G27" s="50"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="66"/>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="B28" s="59"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51">
         <v>1500</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53">
+      <c r="E28" s="51"/>
+      <c r="F28" s="51">
         <v>0.5</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="52"/>
-    </row>
-    <row r="17" spans="2:19">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="53">
+      <c r="G28" s="50"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="66"/>
+    </row>
+    <row r="29" spans="2:19">
+      <c r="B29" s="59"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51">
         <v>1500</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53">
+      <c r="E29" s="51"/>
+      <c r="F29" s="51">
         <v>0.75</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="52"/>
-    </row>
-    <row r="18" spans="2:19">
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="53">
+      <c r="G29" s="50"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="66"/>
+    </row>
+    <row r="30" spans="2:19">
+      <c r="B30" s="59"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51">
         <v>1500</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53">
+      <c r="E30" s="51"/>
+      <c r="F30" s="51">
         <v>1</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="52"/>
-    </row>
-    <row r="19" spans="2:19">
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="53">
+      <c r="G30" s="50"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="66"/>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="B31" s="59"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51">
         <v>2000</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E31" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F31" s="51">
         <v>0.25</v>
       </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="52"/>
-    </row>
-    <row r="20" spans="2:19">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="53">
+      <c r="G31" s="50"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="66"/>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="B32" s="59"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51">
         <v>2000</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53">
+      <c r="E32" s="51"/>
+      <c r="F32" s="51">
         <v>0.5</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="52"/>
-    </row>
-    <row r="21" spans="2:19">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="53">
+      <c r="G32" s="50"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="66"/>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33" s="59"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51">
         <v>2000</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53">
+      <c r="E33" s="51"/>
+      <c r="F33" s="51">
         <v>0.75</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="52"/>
-    </row>
-    <row r="22" spans="2:19">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57">
+      <c r="G33" s="50"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="66"/>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34" s="60"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55">
         <v>2000</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57">
+      <c r="E34" s="55"/>
+      <c r="F34" s="55">
         <v>1</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="58"/>
-    </row>
-    <row r="23" spans="2:19">
-      <c r="B23" s="59">
+      <c r="G34" s="54"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="67"/>
+    </row>
+    <row r="35" spans="2:19">
+      <c r="B35" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="58">
+        <v>500</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="58">
+        <v>0.25</v>
+      </c>
+      <c r="G35" s="48"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="65"/>
+    </row>
+    <row r="36" spans="2:19">
+      <c r="B36" s="59"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51">
+        <v>500</v>
+      </c>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51">
         <v>0.5</v>
       </c>
-      <c r="C23" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="61">
+      <c r="G36" s="50"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="66"/>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="B37" s="59"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51">
         <v>500</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E37" s="51"/>
+      <c r="F37" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="G37" s="50"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="66"/>
+    </row>
+    <row r="38" spans="2:19">
+      <c r="B38" s="59"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51">
+        <v>500</v>
+      </c>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51">
+        <v>1</v>
+      </c>
+      <c r="G38" s="50"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="66"/>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="B39" s="59"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F39" s="51">
         <v>0.25</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="49"/>
-    </row>
-    <row r="24" spans="2:19">
-      <c r="B24" s="62"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53">
-        <v>500</v>
-      </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53">
+      <c r="G39" s="50"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="66"/>
+    </row>
+    <row r="40" spans="2:19">
+      <c r="B40" s="59"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51">
         <v>0.5</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="52"/>
-    </row>
-    <row r="25" spans="2:19">
-      <c r="B25" s="62"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53">
-        <v>500</v>
-      </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53">
+      <c r="G40" s="50"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="66"/>
+    </row>
+    <row r="41" spans="2:19">
+      <c r="B41" s="59"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51">
         <v>0.75</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="52"/>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="B26" s="62"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53">
-        <v>500</v>
-      </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53">
+      <c r="G41" s="50"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="66"/>
+    </row>
+    <row r="42" spans="2:19">
+      <c r="B42" s="59"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51">
         <v>1</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="52"/>
-    </row>
-    <row r="27" spans="2:19">
-      <c r="B27" s="62"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53">
-        <v>1000</v>
-      </c>
-      <c r="E27" s="54" t="s">
+      <c r="G42" s="50"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="66"/>
+    </row>
+    <row r="43" spans="2:19">
+      <c r="B43" s="59"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F43" s="51">
         <v>0.25</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="52"/>
-    </row>
-    <row r="28" spans="2:19">
-      <c r="B28" s="62"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53">
-        <v>1000</v>
-      </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53">
+      <c r="G43" s="50"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="66"/>
+    </row>
+    <row r="44" spans="2:19">
+      <c r="B44" s="59"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51">
+        <v>1500</v>
+      </c>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51">
         <v>0.5</v>
       </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="52"/>
-    </row>
-    <row r="29" spans="2:19">
-      <c r="B29" s="62"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53">
-        <v>1000</v>
-      </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53">
+      <c r="G44" s="50"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="66"/>
+    </row>
+    <row r="45" spans="2:19">
+      <c r="B45" s="59"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51">
         <v>0.75</v>
       </c>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="52"/>
-    </row>
-    <row r="30" spans="2:19">
-      <c r="B30" s="62"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53">
-        <v>1000</v>
-      </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53">
+      <c r="G45" s="50"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="66"/>
+    </row>
+    <row r="46" spans="2:19">
+      <c r="B46" s="59"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51">
         <v>1</v>
       </c>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="52"/>
-    </row>
-    <row r="31" spans="2:19">
-      <c r="B31" s="62"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53">
-        <v>1500</v>
-      </c>
-      <c r="E31" s="54" t="s">
+      <c r="G46" s="50"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="66"/>
+    </row>
+    <row r="47" spans="2:19">
+      <c r="B47" s="59"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F47" s="51">
         <v>0.25</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="52"/>
-    </row>
-    <row r="32" spans="2:19">
-      <c r="B32" s="62"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53">
-        <v>1500</v>
-      </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53">
+      <c r="G47" s="50"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="66"/>
+    </row>
+    <row r="48" spans="2:19">
+      <c r="B48" s="59"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51">
         <v>0.5</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="52"/>
-    </row>
-    <row r="33" spans="2:19">
-      <c r="B33" s="62"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53">
-        <v>1500</v>
-      </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53">
+      <c r="G48" s="50"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="66"/>
+    </row>
+    <row r="49" spans="2:19">
+      <c r="B49" s="59"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51">
         <v>0.75</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="52"/>
-    </row>
-    <row r="34" spans="2:19">
-      <c r="B34" s="62"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53">
-        <v>1500</v>
-      </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53">
+      <c r="G49" s="50"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="66"/>
+    </row>
+    <row r="50" spans="2:19">
+      <c r="B50" s="60"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55">
         <v>1</v>
       </c>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="52"/>
-    </row>
-    <row r="35" spans="2:19">
-      <c r="B35" s="62"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53">
-        <v>1500</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="53">
-        <v>0.25</v>
-      </c>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="52"/>
-    </row>
-    <row r="36" spans="2:19">
-      <c r="B36" s="62"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53">
-        <v>1500</v>
-      </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="52"/>
-    </row>
-    <row r="37" spans="2:19">
-      <c r="B37" s="62"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53">
-        <v>1500</v>
-      </c>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="52"/>
-    </row>
-    <row r="38" spans="2:19">
-      <c r="B38" s="62"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53">
-        <v>1500</v>
-      </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53">
-        <v>1</v>
-      </c>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="52"/>
-    </row>
-    <row r="39" spans="2:19">
-      <c r="B39" s="62"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53">
-        <v>2000</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="53">
-        <v>0.25</v>
-      </c>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="52"/>
-    </row>
-    <row r="40" spans="2:19">
-      <c r="B40" s="62"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53">
-        <v>2000</v>
-      </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="52"/>
-    </row>
-    <row r="41" spans="2:19">
-      <c r="B41" s="62"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53">
-        <v>2000</v>
-      </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="52"/>
-    </row>
-    <row r="42" spans="2:19">
-      <c r="B42" s="63"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57">
-        <v>2000</v>
-      </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57">
-        <v>1</v>
-      </c>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="58"/>
-    </row>
-    <row r="43" spans="2:19">
-      <c r="B43" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="C43" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="61">
-        <v>500</v>
-      </c>
-      <c r="E43" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="61">
-        <v>0.25</v>
-      </c>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="49"/>
-    </row>
-    <row r="44" spans="2:19">
-      <c r="B44" s="62"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53">
-        <v>500</v>
-      </c>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="52"/>
-    </row>
-    <row r="45" spans="2:19">
-      <c r="B45" s="62"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53">
-        <v>500</v>
-      </c>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="52"/>
-    </row>
-    <row r="46" spans="2:19">
-      <c r="B46" s="62"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53">
-        <v>500</v>
-      </c>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53">
-        <v>1</v>
-      </c>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="52"/>
-    </row>
-    <row r="47" spans="2:19">
-      <c r="B47" s="62"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53">
-        <v>1000</v>
-      </c>
-      <c r="E47" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="53">
-        <v>0.25</v>
-      </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="51"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="52"/>
-    </row>
-    <row r="48" spans="2:19">
-      <c r="B48" s="62"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53">
-        <v>1000</v>
-      </c>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="51"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="52"/>
-    </row>
-    <row r="49" spans="2:19">
-      <c r="B49" s="62"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53">
-        <v>1000</v>
-      </c>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="51"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="52"/>
-    </row>
-    <row r="50" spans="2:19">
-      <c r="B50" s="62"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53">
-        <v>1000</v>
-      </c>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53">
-        <v>1</v>
-      </c>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="51"/>
-      <c r="Q50" s="51"/>
-      <c r="R50" s="51"/>
-      <c r="S50" s="52"/>
-    </row>
-    <row r="51" spans="2:19">
-      <c r="B51" s="62"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53">
-        <v>1500</v>
-      </c>
-      <c r="E51" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="53">
-        <v>0.25</v>
-      </c>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="51"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="52"/>
-    </row>
-    <row r="52" spans="2:19">
-      <c r="B52" s="62"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53">
-        <v>1500</v>
-      </c>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="51"/>
-      <c r="S52" s="52"/>
-    </row>
-    <row r="53" spans="2:19">
-      <c r="B53" s="62"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53">
-        <v>1500</v>
-      </c>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="51"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="51"/>
-      <c r="R53" s="51"/>
-      <c r="S53" s="52"/>
-    </row>
-    <row r="54" spans="2:19">
-      <c r="B54" s="62"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53">
-        <v>1500</v>
-      </c>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53">
-        <v>1</v>
-      </c>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="51"/>
-      <c r="N54" s="51"/>
-      <c r="O54" s="51"/>
-      <c r="P54" s="51"/>
-      <c r="Q54" s="51"/>
-      <c r="R54" s="51"/>
-      <c r="S54" s="52"/>
-    </row>
-    <row r="55" spans="2:19">
-      <c r="B55" s="62"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53">
-        <v>1500</v>
-      </c>
-      <c r="E55" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="53">
-        <v>0.25</v>
-      </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="51"/>
-      <c r="O55" s="51"/>
-      <c r="P55" s="51"/>
-      <c r="Q55" s="51"/>
-      <c r="R55" s="51"/>
-      <c r="S55" s="52"/>
-    </row>
-    <row r="56" spans="2:19">
-      <c r="B56" s="62"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53">
-        <v>1500</v>
-      </c>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="51"/>
-      <c r="O56" s="51"/>
-      <c r="P56" s="51"/>
-      <c r="Q56" s="51"/>
-      <c r="R56" s="51"/>
-      <c r="S56" s="52"/>
-    </row>
-    <row r="57" spans="2:19">
-      <c r="B57" s="62"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53">
-        <v>1500</v>
-      </c>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="51"/>
-      <c r="O57" s="51"/>
-      <c r="P57" s="51"/>
-      <c r="Q57" s="51"/>
-      <c r="R57" s="51"/>
-      <c r="S57" s="52"/>
-    </row>
-    <row r="58" spans="2:19">
-      <c r="B58" s="62"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53">
-        <v>1500</v>
-      </c>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53">
-        <v>1</v>
-      </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="51"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="51"/>
-      <c r="O58" s="51"/>
-      <c r="P58" s="51"/>
-      <c r="Q58" s="51"/>
-      <c r="R58" s="51"/>
-      <c r="S58" s="52"/>
-    </row>
-    <row r="59" spans="2:19">
-      <c r="B59" s="62"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53">
-        <v>2000</v>
-      </c>
-      <c r="E59" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="53">
-        <v>0.25</v>
-      </c>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="51"/>
-      <c r="M59" s="51"/>
-      <c r="N59" s="51"/>
-      <c r="O59" s="51"/>
-      <c r="P59" s="51"/>
-      <c r="Q59" s="51"/>
-      <c r="R59" s="51"/>
-      <c r="S59" s="52"/>
-    </row>
-    <row r="60" spans="2:19">
-      <c r="B60" s="62"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53">
-        <v>2000</v>
-      </c>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="51"/>
-      <c r="O60" s="51"/>
-      <c r="P60" s="51"/>
-      <c r="Q60" s="51"/>
-      <c r="R60" s="51"/>
-      <c r="S60" s="52"/>
-    </row>
-    <row r="61" spans="2:19">
-      <c r="B61" s="62"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53">
-        <v>2000</v>
-      </c>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53">
-        <v>0.75</v>
-      </c>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="51"/>
-      <c r="O61" s="51"/>
-      <c r="P61" s="51"/>
-      <c r="Q61" s="51"/>
-      <c r="R61" s="51"/>
-      <c r="S61" s="52"/>
-    </row>
-    <row r="62" spans="2:19">
-      <c r="B62" s="63"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57">
-        <v>2000</v>
-      </c>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57">
-        <v>1</v>
-      </c>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="56"/>
-      <c r="P62" s="56"/>
-      <c r="Q62" s="56"/>
-      <c r="R62" s="56"/>
-      <c r="S62" s="58"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="64"/>
+      <c r="R50" s="64"/>
+      <c r="S50" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4886,13 +4606,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="9" max="9" width="10.83203125" style="71"/>
+    <col min="11" max="11" width="10.83203125" style="71"/>
+    <col min="13" max="13" width="10.83203125" style="71"/>
+    <col min="15" max="15" width="10.83203125" style="71"/>
+    <col min="17" max="17" width="10.83203125" style="71"/>
+    <col min="19" max="19" width="10.83203125" style="71"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="42"/>
@@ -4905,37 +4633,37 @@
       <c r="H1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="71" t="s">
         <v>34</v>
       </c>
       <c r="J1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="71" t="s">
         <v>35</v>
       </c>
       <c r="L1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="71" t="s">
         <v>36</v>
       </c>
       <c r="N1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="71" t="s">
         <v>37</v>
       </c>
       <c r="P1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="71" t="s">
         <v>38</v>
       </c>
       <c r="R1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="71" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4952,37 +4680,37 @@
       <c r="H2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="71" t="s">
         <v>30</v>
       </c>
       <c r="J2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="71" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="71" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="71" t="s">
         <v>30</v>
       </c>
       <c r="R2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="S2" s="71" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4990,38 +4718,38 @@
       <c r="A3" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="61">
         <v>0.25</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="58">
         <v>500</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="64"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="65"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="42"/>
-      <c r="B4" s="62"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="42"/>
       <c r="D4" s="42">
         <v>500</v>
@@ -5032,63 +4760,48 @@
       </c>
       <c r="G4" s="42"/>
       <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
       <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
       <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
       <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
       <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
       <c r="R4" s="42"/>
-      <c r="S4" s="65"/>
+      <c r="S4" s="66"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="42"/>
-      <c r="B5" s="62"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
       <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
       <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
       <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
       <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
       <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
       <c r="R5" s="42"/>
-      <c r="S5" s="65"/>
+      <c r="S5" s="66"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="42"/>
-      <c r="B6" s="62"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
       <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
       <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
       <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
       <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
       <c r="R6" s="42"/>
-      <c r="S6" s="65"/>
+      <c r="S6" s="66"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="42"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="42"/>
       <c r="D7" s="42">
         <v>1000</v>
@@ -5096,26 +4809,21 @@
       <c r="E7" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="58" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
       <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
       <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
       <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
       <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
-      <c r="S7" s="65"/>
+      <c r="S7" s="66"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="42"/>
-      <c r="B8" s="62"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="42"/>
       <c r="D8" s="42">
         <v>1000</v>
@@ -5126,63 +4834,48 @@
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
       <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
       <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
       <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
       <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
       <c r="R8" s="42"/>
-      <c r="S8" s="65"/>
+      <c r="S8" s="66"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="42"/>
-      <c r="B9" s="62"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
       <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
       <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
       <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
       <c r="R9" s="42"/>
-      <c r="S9" s="65"/>
+      <c r="S9" s="66"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="42"/>
-      <c r="B10" s="62"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
       <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
       <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
       <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
       <c r="R10" s="42"/>
-      <c r="S10" s="65"/>
+      <c r="S10" s="66"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="42"/>
-      <c r="B11" s="62"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42">
         <v>1500</v>
@@ -5190,26 +4883,21 @@
       <c r="E11" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="58" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
       <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
       <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
       <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
       <c r="R11" s="42"/>
-      <c r="S11" s="65"/>
+      <c r="S11" s="66"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="42"/>
-      <c r="B12" s="62"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="42"/>
       <c r="D12" s="42">
         <v>1500</v>
@@ -5220,93 +4908,73 @@
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
       <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
       <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
       <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
       <c r="R12" s="42"/>
-      <c r="S12" s="65"/>
+      <c r="S12" s="66"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="42"/>
-      <c r="B13" s="62"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
       <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
       <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
       <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
-      <c r="S13" s="65"/>
+      <c r="S13" s="66"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="42"/>
-      <c r="B14" s="62"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
       <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
       <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
       <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
-      <c r="S14" s="65"/>
+      <c r="S14" s="66"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="42"/>
-      <c r="B15" s="62"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="58" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
       <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
       <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
       <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
       <c r="R15" s="42"/>
-      <c r="S15" s="65"/>
+      <c r="S15" s="66"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="42"/>
-      <c r="B16" s="62"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E16" s="42"/>
       <c r="F16" s="42" t="s">
@@ -5314,1101 +4982,807 @@
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
       <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
       <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
       <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
       <c r="R16" s="42"/>
-      <c r="S16" s="65"/>
+      <c r="S16" s="66"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="42"/>
-      <c r="B17" s="62"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
       <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
       <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
       <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
       <c r="R17" s="42"/>
-      <c r="S17" s="65"/>
+      <c r="S17" s="66"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="42"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="65"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="67"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="42"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="46" t="s">
+      <c r="B19" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="71">
+        <v>500</v>
+      </c>
+      <c r="E19" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="65"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="66"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="42"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42">
-        <v>2000</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71">
+        <v>500</v>
+      </c>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="65"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="66"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="42"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="65"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="66"/>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="42"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="R22" s="71"/>
       <c r="S22" s="66"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="42"/>
-      <c r="B23" s="62">
-        <v>0.5</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="42">
-        <v>500</v>
-      </c>
-      <c r="E23" s="46" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="65"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="66"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="42"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42">
-        <v>500</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42" t="s">
+      <c r="B24" s="72"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="65"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="66"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="42"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="65"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="66"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="42"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="65"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="66"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="42"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42">
-        <v>1000</v>
-      </c>
-      <c r="E27" s="46" t="s">
+      <c r="B27" s="72"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="65"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="66"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="42"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42">
-        <v>1000</v>
-      </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71">
+        <v>1500</v>
+      </c>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="65"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="66"/>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="42"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="65"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="66"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="42"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="65"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="66"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="42"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42">
+      <c r="B31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71">
         <v>1500</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="65"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="66"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="42"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42">
+      <c r="B32" s="72"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71">
         <v>1500</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42" t="s">
+      <c r="E32" s="71"/>
+      <c r="F32" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="65"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="66"/>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="42"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="65"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="66"/>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="42"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="65"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="66"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="42"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42">
-        <v>1500</v>
-      </c>
-      <c r="E35" s="46" t="s">
+      <c r="B35" s="72"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="61" t="s">
+      <c r="F35" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="65"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="66"/>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="42"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42">
-        <v>1500</v>
-      </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42" t="s">
+      <c r="B36" s="72"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="65"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="66"/>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="42"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="65"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="66"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="42"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="65"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="67"/>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="42"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42">
-        <v>2000</v>
-      </c>
-      <c r="E39" s="46" t="s">
+      <c r="B39" s="72">
+        <v>0.75</v>
+      </c>
+      <c r="C39" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="71">
+        <v>500</v>
+      </c>
+      <c r="E39" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="61" t="s">
+      <c r="F39" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="65"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="66"/>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="42"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42">
-        <v>2000</v>
-      </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42" t="s">
+      <c r="B40" s="72"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71">
+        <v>500</v>
+      </c>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="65"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="66"/>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="42"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="65"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="66"/>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="42"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="R42" s="71"/>
       <c r="S42" s="66"/>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="42"/>
-      <c r="B43" s="62">
-        <v>0.75</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="42">
-        <v>500</v>
-      </c>
-      <c r="E43" s="46" t="s">
+      <c r="B43" s="72"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="65"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="66"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="42"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42">
-        <v>500</v>
-      </c>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42" t="s">
+      <c r="B44" s="72"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="65"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="66"/>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="42"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="65"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="66"/>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="42"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="65"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="66"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="42"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42">
-        <v>1000</v>
-      </c>
-      <c r="E47" s="46" t="s">
+      <c r="B47" s="72"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71">
+        <v>1500</v>
+      </c>
+      <c r="E47" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="61" t="s">
+      <c r="F47" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="65"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="66"/>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="42"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42">
-        <v>1000</v>
-      </c>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42" t="s">
+      <c r="B48" s="72"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="42"/>
-      <c r="R48" s="42"/>
-      <c r="S48" s="65"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="66"/>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="42"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="42"/>
-      <c r="R49" s="42"/>
-      <c r="S49" s="65"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="66"/>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="42"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="65"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="N50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="66"/>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="42"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42">
+      <c r="B51" s="72"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71">
         <v>1500</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="61" t="s">
+      <c r="F51" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="65"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="L51" s="71"/>
+      <c r="N51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="66"/>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="42"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42">
+      <c r="B52" s="72"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71">
         <v>1500</v>
       </c>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42" t="s">
+      <c r="E52" s="71"/>
+      <c r="F52" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="65"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="L52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="P52" s="71"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="66"/>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="42"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="42"/>
-      <c r="S53" s="65"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="N53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="66"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="42"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="42"/>
-      <c r="R54" s="42"/>
-      <c r="S54" s="65"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="L54" s="71"/>
+      <c r="N54" s="71"/>
+      <c r="P54" s="71"/>
+      <c r="R54" s="71"/>
+      <c r="S54" s="66"/>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="42"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42">
-        <v>1500</v>
-      </c>
-      <c r="E55" s="46" t="s">
+      <c r="B55" s="72"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71">
+        <v>2000</v>
+      </c>
+      <c r="E55" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="61" t="s">
+      <c r="F55" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="42"/>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="42"/>
-      <c r="R55" s="42"/>
-      <c r="S55" s="65"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="J55" s="71"/>
+      <c r="L55" s="71"/>
+      <c r="N55" s="71"/>
+      <c r="P55" s="71"/>
+      <c r="R55" s="71"/>
+      <c r="S55" s="66"/>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="42"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42">
-        <v>1500</v>
-      </c>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42" t="s">
+      <c r="B56" s="72"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71">
+        <v>2000</v>
+      </c>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="42"/>
-      <c r="P56" s="42"/>
-      <c r="Q56" s="42"/>
-      <c r="R56" s="42"/>
-      <c r="S56" s="65"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="66"/>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="42"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="42"/>
-      <c r="Q57" s="42"/>
-      <c r="R57" s="42"/>
-      <c r="S57" s="65"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="N57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="66"/>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="42"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="65"/>
-    </row>
-    <row r="59" spans="1:19">
-      <c r="A59" s="42"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42">
-        <v>2000</v>
-      </c>
-      <c r="E59" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="42"/>
-      <c r="S59" s="65"/>
-    </row>
-    <row r="60" spans="1:19">
-      <c r="A60" s="42"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42">
-        <v>2000</v>
-      </c>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="65"/>
-    </row>
-    <row r="61" spans="1:19">
-      <c r="A61" s="42"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="65"/>
-    </row>
-    <row r="62" spans="1:19">
-      <c r="A62" s="42"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
-      <c r="N62" s="57"/>
-      <c r="O62" s="57"/>
-      <c r="P62" s="57"/>
-      <c r="Q62" s="57"/>
-      <c r="R62" s="57"/>
-      <c r="S62" s="66"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/monitoring/analytics/scripts/tests.xlsx
+++ b/monitoring/analytics/scripts/tests.xlsx
@@ -4595,7 +4595,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5786,7 +5785,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
